--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserClass" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnemyStats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="UserClass" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UserStats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="EnemyStats" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -610,24 +610,24 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>Necromancer</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Sword</t>
+          <t>Scythe</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserClass" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnemyStats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnemyClass" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnemyStats" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -69,7 +70,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -455,89 +459,89 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ClassName</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Attack</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Defense</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Fighter</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Mage</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Necromancer</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -564,70 +568,70 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customFormat="1" customHeight="1" s="3">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="12.8" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ClassName</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Attack</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Defense</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Weapon</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Fighter</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Sword</t>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Necromancer</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Scythe</t>
         </is>
       </c>
     </row>
@@ -652,34 +656,209 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Creature</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Attack</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Defense</t>
         </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Evil Turtle</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Flora</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Página &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Creature</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Attack</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Evil Turtle</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Flora</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
